--- a/サンプルプロジェクト/ソースコード/proman-project/proman-jmeter/src/test/resources/WA10201/001_register_project/db_dump/EXPECTED.xlsx
+++ b/サンプルプロジェクト/ソースコード/proman-project/proman-jmeter/src/test/resources/WA10201/001_register_project/db_dump/EXPECTED.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\gitbucket\pre-release\nablarch-development-guide\サンプルプロジェクト\ソースコード\proman-project\proman-jmeter\src\test\resources\jmeter\001_register_project\db_dump\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\gitbucket\pre-release\nablarch-development-guide\サンプルプロジェクト\ソースコード\proman-project\proman-jmeter\src\test\resources\WA10201\001_register_project\db_dump\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2840BC-44BC-4CE6-864E-CA9400112496}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91693633-EA13-4E5B-81BE-C16E471D336A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5415" yWindow="2700" windowWidth="21615" windowHeight="12255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1005" yWindow="-120" windowWidth="27915" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="project" sheetId="89" r:id="rId1"/>
@@ -4924,7 +4924,7 @@
     <t>テストプロジェクトです。</t>
   </si>
   <si>
-    <t>98765</t>
+    <t>12345</t>
   </si>
 </sst>
 </file>
@@ -5396,17 +5396,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{653E2E7F-9C5F-4F5A-9191-E55F61145C0A}">
-  <dimension ref="A1:M203"/>
+  <dimension ref="A1:N203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="A172" sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="12" width="9" style="1" collapsed="1"/>
-    <col min="13" max="13" width="9" style="1"/>
-    <col min="14" max="16384" width="9" style="1" collapsed="1"/>
+    <col min="1" max="11" width="9" style="1" collapsed="1"/>
+    <col min="12" max="12" width="9" style="1"/>
+    <col min="13" max="13" width="9" style="1" collapsed="1"/>
+    <col min="14" max="14" width="9" style="1"/>
+    <col min="15" max="16384" width="9" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
@@ -13048,10 +13048,10 @@
         <v>1627</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D202" s="3" t="s">
         <v>380</v>
@@ -13060,7 +13060,7 @@
         <v>659</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="G202" s="3" t="s">
         <v>1</v>

--- a/サンプルプロジェクト/ソースコード/proman-project/proman-jmeter/src/test/resources/WA10201/001_register_project/db_dump/EXPECTED.xlsx
+++ b/サンプルプロジェクト/ソースコード/proman-project/proman-jmeter/src/test/resources/WA10201/001_register_project/db_dump/EXPECTED.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tmp\guide\サンプルプロジェクト\ソースコード\proman-project\proman-jmeter\src\test\resources\WA10201\001_register_project\db_dump\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96B5103-B7FC-43A7-8720-0195B94E7560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0BD0830-1F09-49B1-B7E1-2581F67FAEAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="project" sheetId="89" r:id="rId1"/>
